--- a/Bubble Tea Dataset.xlsx
+++ b/Bubble Tea Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>opening_am/pm</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +544,8 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -579,6 +591,8 @@
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,6 +638,8 @@
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -665,6 +681,8 @@
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,6 +724,8 @@
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -747,6 +767,8 @@
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -788,6 +810,8 @@
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -829,6 +853,8 @@
           <t>pm</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -870,6 +896,8 @@
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -915,6 +943,8 @@
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -956,6 +986,8 @@
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -997,6 +1029,8 @@
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1038,6 +1072,8 @@
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1079,6 +1115,8 @@
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1120,6 +1158,8 @@
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1165,6 +1205,8 @@
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1206,6 +1248,8 @@
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1247,6 +1291,8 @@
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1292,6 +1338,8 @@
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1333,6 +1381,8 @@
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1378,6 +1428,8 @@
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1423,6 +1475,8 @@
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1468,6 +1522,8 @@
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1505,6 +1561,8 @@
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1550,6 +1608,8 @@
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1595,6 +1655,8 @@
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1640,6 +1702,8 @@
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1681,6 +1745,8 @@
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1726,6 +1792,8 @@
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1771,6 +1839,8 @@
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1816,6 +1886,8 @@
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1861,6 +1933,8 @@
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1906,6 +1980,8 @@
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1951,6 +2027,8 @@
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1996,6 +2074,8 @@
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2037,6 +2117,8 @@
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2078,6 +2160,8 @@
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2119,6 +2203,8 @@
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2164,6 +2250,8 @@
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2209,6 +2297,8 @@
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2254,6 +2344,8 @@
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2295,6 +2387,8 @@
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2340,6 +2434,8 @@
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2385,6 +2481,8 @@
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2430,6 +2528,8 @@
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2471,6 +2571,8 @@
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2516,6 +2618,8 @@
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2561,6 +2665,8 @@
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2606,6 +2712,8 @@
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2651,6 +2759,8 @@
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2696,6 +2806,8 @@
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2737,6 +2849,8 @@
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2782,6 +2896,8 @@
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2823,6 +2939,8 @@
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2864,6 +2982,8 @@
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2905,6 +3025,8 @@
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2950,6 +3072,8 @@
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2995,6 +3119,8 @@
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3040,6 +3166,8 @@
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3081,6 +3209,8 @@
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3126,6 +3256,8 @@
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3171,6 +3303,8 @@
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3216,6 +3350,8 @@
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3257,6 +3393,8 @@
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3302,6 +3440,8 @@
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3347,6 +3487,8 @@
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3392,6 +3534,8 @@
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3437,6 +3581,8 @@
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3482,6 +3628,8 @@
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3523,6 +3671,8 @@
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3568,6 +3718,8 @@
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3609,6 +3761,8 @@
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3650,6 +3804,8 @@
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3691,6 +3847,8 @@
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3736,6 +3894,8 @@
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3781,6 +3941,8 @@
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3822,6 +3984,8 @@
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3867,6 +4031,8 @@
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3912,6 +4078,8 @@
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3957,6 +4125,8 @@
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4002,6 +4172,8 @@
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4047,6 +4219,8 @@
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4088,6 +4262,8 @@
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4133,6 +4309,8 @@
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4174,6 +4352,8 @@
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4219,6 +4399,8 @@
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4264,6 +4446,8 @@
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4309,6 +4493,8 @@
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4354,6 +4540,8 @@
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4399,6 +4587,8 @@
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4444,6 +4634,8 @@
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4489,6 +4681,8 @@
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4534,6 +4728,8 @@
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4579,6 +4775,8 @@
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4620,6 +4818,8 @@
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4665,6 +4865,8 @@
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4710,6 +4912,8 @@
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4755,6 +4959,8 @@
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4800,6 +5006,8 @@
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4845,6 +5053,8 @@
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4890,6 +5100,8 @@
           <t>pm</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4935,6 +5147,8 @@
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4980,6 +5194,8 @@
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5025,6 +5241,8 @@
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5070,6 +5288,8 @@
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5115,6 +5335,8 @@
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5156,6 +5378,8 @@
         </is>
       </c>
       <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5201,6 +5425,8 @@
         </is>
       </c>
       <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5246,6 +5472,8 @@
         </is>
       </c>
       <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5291,6 +5519,8 @@
           <t>pm</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5336,6 +5566,8 @@
         </is>
       </c>
       <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5381,6 +5613,8 @@
         </is>
       </c>
       <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5426,6 +5660,8 @@
         </is>
       </c>
       <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5471,6 +5707,8 @@
         </is>
       </c>
       <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5516,6 +5754,8 @@
         </is>
       </c>
       <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5561,6 +5801,8 @@
         </is>
       </c>
       <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5606,6 +5848,8 @@
         </is>
       </c>
       <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5651,6 +5895,8 @@
         </is>
       </c>
       <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5692,6 +5938,8 @@
         </is>
       </c>
       <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5733,6 +5981,8 @@
         </is>
       </c>
       <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5774,6 +6024,8 @@
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5815,6 +6067,8 @@
         </is>
       </c>
       <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5860,6 +6114,8 @@
         </is>
       </c>
       <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5905,6 +6161,8 @@
         </is>
       </c>
       <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5946,6 +6204,8 @@
         </is>
       </c>
       <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5991,6 +6251,8 @@
         </is>
       </c>
       <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6036,6 +6298,8 @@
         </is>
       </c>
       <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6081,6 +6345,8 @@
         </is>
       </c>
       <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6126,6 +6392,8 @@
         </is>
       </c>
       <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6171,6 +6439,8 @@
         </is>
       </c>
       <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6212,6 +6482,8 @@
         </is>
       </c>
       <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6249,6 +6521,8 @@
         </is>
       </c>
       <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6290,6 +6564,8 @@
         </is>
       </c>
       <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6331,6 +6607,8 @@
         </is>
       </c>
       <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6376,6 +6654,8 @@
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6421,6 +6701,8 @@
         </is>
       </c>
       <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6466,6 +6748,8 @@
         </is>
       </c>
       <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6507,6 +6791,8 @@
         </is>
       </c>
       <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6548,6 +6834,8 @@
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6593,6 +6881,8 @@
         </is>
       </c>
       <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6634,6 +6924,8 @@
         </is>
       </c>
       <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6675,6 +6967,8 @@
         </is>
       </c>
       <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6720,6 +7014,8 @@
         </is>
       </c>
       <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6761,6 +7057,8 @@
         </is>
       </c>
       <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6806,6 +7104,8 @@
         </is>
       </c>
       <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6851,6 +7151,8 @@
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6892,6 +7194,8 @@
         </is>
       </c>
       <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6937,6 +7241,8 @@
         </is>
       </c>
       <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6974,6 +7280,8 @@
         </is>
       </c>
       <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7019,6 +7327,8 @@
         </is>
       </c>
       <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7060,6 +7370,8 @@
         </is>
       </c>
       <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7105,6 +7417,8 @@
         </is>
       </c>
       <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7146,6 +7460,8 @@
         </is>
       </c>
       <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7191,6 +7507,8 @@
         </is>
       </c>
       <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7232,6 +7550,8 @@
         </is>
       </c>
       <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7277,6 +7597,8 @@
         </is>
       </c>
       <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7314,6 +7636,8 @@
         </is>
       </c>
       <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7351,6 +7675,8 @@
         </is>
       </c>
       <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7392,6 +7718,8 @@
         </is>
       </c>
       <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7433,6 +7761,8 @@
         </is>
       </c>
       <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7474,6 +7804,8 @@
         </is>
       </c>
       <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7511,6 +7843,8 @@
         </is>
       </c>
       <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7552,6 +7886,8 @@
         </is>
       </c>
       <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7593,6 +7929,8 @@
         </is>
       </c>
       <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7634,6 +7972,8 @@
         </is>
       </c>
       <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7671,6 +8011,8 @@
         </is>
       </c>
       <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7712,6 +8054,8 @@
         </is>
       </c>
       <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7749,6 +8093,8 @@
         </is>
       </c>
       <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bubble Tea Dataset.xlsx
+++ b/Bubble Tea Dataset.xlsx
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>51.4895331</v>
+        <v>51.4898477</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.096481</v>
+        <v>-0.09668119999999999</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1004,14 +1004,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>51.397942</v>
+        <v>51.4682003</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2321119</v>
+        <v>-0.2725287</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7, Kingsway, West Barnes, London Borough of Merton, London, Greater London, England, KT3 6JA, United Kingdom</t>
+          <t>7, Kingsway, Mortlake, London Borough of Richmond upon Thames, London, Greater London, England, SW14 7HL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>24A, Newport Court, Chinatown, London, Greater London, England, WC2H 7JP, United Kingdom</t>
+          <t>24A, Newport Court, Chinatown, London, Greater London, England, WC2H 7PQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1330,14 +1330,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>51.5135236</v>
+        <v>51.5137211</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.130376</v>
+        <v>-0.1298998</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Old Compton Street, Soho, City of Westminster, Greater London, England, W1D 5DD, United Kingdom</t>
+          <t>Old Compton Street, St Giles, Soho, London Borough of Camden, City of Westminster, Greater London, England, W1D 5JF, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1738,14 +1738,14 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>51.5159194</v>
+        <v>51.518619</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.1750057</v>
+        <v>-0.1701288</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Praed Street, Paddington, London, Greater London, England, W2 1HU, United Kingdom</t>
+          <t>Praed Street, Paddington, London, Greater London, England, W2 1JL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1820,14 +1820,14 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>51.5460997</v>
+        <v>51.5465294</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0761199</v>
+        <v>-0.0854328</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Balls Pond Road, De Beauvoir Town, Dalston, London Borough of Hackney, London, Greater London, England, N1 4AX, United Kingdom</t>
+          <t>Balls Pond Road, Mildmay Park, Islington, London Borough of Islington, London, Greater London, England, N1 4BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2022,14 +2022,14 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>51.5181106</v>
+        <v>51.5185812</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1264428</v>
+        <v>-0.1252748</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1B 3PA, United Kingdom</t>
+          <t>Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1B 3BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2176,14 +2176,14 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>51.5570642</v>
+        <v>51.5568174</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2824733</v>
+        <v>-0.2827893</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Wembley Park Boulevard, London Designer Outlet (LDO), London Borough of Brent, London, Greater London, England, HA9 0BU, United Kingdom</t>
+          <t>Wembley Park Boulevard, London Borough of Brent, London, Greater London, England, HA9 0BU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2412,14 +2412,14 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>51.4916298</v>
+        <v>51.491771</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.0464452</v>
+        <v>-0.0454135</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rotherhithe New Road, Surrey Quays, Rotherhithe, London Borough of Southwark, London, Greater London, England, SE16 2AD, United Kingdom</t>
+          <t>Rotherhithe New Road, Surrey Quays, Rotherhithe, London Borough of Southwark, London, Greater London, England, SE16 2AA, United Kingdom</t>
         </is>
       </c>
     </row>
